--- a/case_studies/summary/Performance Measurement.xlsx
+++ b/case_studies/summary/Performance Measurement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e7693daad6ee0b0/FID Team/FID Pollux/Final Evaluation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hermannkroll/Documents/PromotionProjekte/PubMedSnorkel/lib/KGExtractionToolbox/case_studies/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{CBDD52F2-5000-224C-800B-E2FC3E0C6B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B775BA8-FA0D-4047-BF22-9B188BA93897}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E25F537-261A-8949-B2BC-F5CE27DC806F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{539F0658-8169-C44B-8A1D-0CC3FA545B0F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
   <si>
     <t>Sample</t>
   </si>
@@ -97,16 +97,29 @@
   </si>
   <si>
     <t>Minutes</t>
+  </si>
+  <si>
+    <t>CoreNLP NF</t>
+  </si>
+  <si>
+    <t>CoreNLP EF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,9 +145,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -449,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9AA0F7-EBE6-FE4A-A9FB-3BD9F1FBB704}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="193" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="193" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,7 +573,7 @@
         <v>74.033333333333346</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H19" si="2">G3/60</f>
+        <f t="shared" ref="H3:H8" si="2">G3/60</f>
         <v>1.233888888888889</v>
       </c>
       <c r="J3">
@@ -719,128 +733,118 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>435.2</v>
+      </c>
+      <c r="D7">
+        <v>437.1</v>
+      </c>
+      <c r="E7">
+        <v>432.4</v>
+      </c>
+      <c r="G7" s="1">
+        <f>AVERAGE(C7:E7)</f>
+        <v>434.89999999999992</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>7.2483333333333322</v>
+      </c>
+      <c r="J7">
+        <v>10000</v>
+      </c>
+      <c r="K7">
+        <v>87149</v>
+      </c>
+      <c r="L7">
+        <v>47389</v>
+      </c>
+      <c r="M7">
+        <v>33000000</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N8" si="3">(G7/J7)*M7</f>
+        <v>1435169.9999999998</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" ref="O7:O8" si="4">N7/86400</f>
+        <v>16.610763888888886</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>629</v>
-      </c>
-      <c r="D9">
-        <v>630.6</v>
-      </c>
-      <c r="E9">
-        <v>631.29999999999995</v>
-      </c>
-      <c r="G9" s="1">
-        <f>AVERAGE(C9:E9)</f>
-        <v>630.29999999999995</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>307</v>
+      </c>
+      <c r="D8">
+        <v>304.39999999999998</v>
+      </c>
+      <c r="E8">
+        <v>296</v>
+      </c>
+      <c r="G8" s="1">
+        <f>AVERAGE(C8:E8)</f>
+        <v>302.46666666666664</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="2"/>
-        <v>10.504999999999999</v>
-      </c>
-      <c r="J9">
-        <v>2373</v>
-      </c>
-      <c r="K9">
-        <v>74533</v>
-      </c>
-      <c r="L9">
-        <v>50318</v>
-      </c>
-      <c r="M9">
-        <v>6300000</v>
-      </c>
-      <c r="N9">
-        <f>(G9/J9)*M9</f>
-        <v>1673362.831858407</v>
-      </c>
-      <c r="O9" s="1">
-        <f t="shared" ref="O9:O13" si="3">N9/86400</f>
-        <v>19.367625368731563</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>42.6</v>
-      </c>
-      <c r="D10">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="E10">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" ref="G10" si="4">AVERAGE(C10:E10)</f>
-        <v>37.733333333333334</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="2"/>
-        <v>0.62888888888888894</v>
-      </c>
-      <c r="J10">
-        <v>2373</v>
-      </c>
-      <c r="K10">
-        <v>74533</v>
-      </c>
-      <c r="L10">
-        <v>50318</v>
-      </c>
-      <c r="M10">
-        <v>6300000</v>
-      </c>
-      <c r="N10">
-        <f>(G10/J10)*M10</f>
-        <v>100176.99115044247</v>
-      </c>
-      <c r="O10" s="1">
+        <v>5.0411111111111104</v>
+      </c>
+      <c r="J8">
+        <v>10000</v>
+      </c>
+      <c r="K8">
+        <v>87149</v>
+      </c>
+      <c r="L8">
+        <v>47389</v>
+      </c>
+      <c r="M8">
+        <v>33000000</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="3"/>
-        <v>1.1594559160930842</v>
+        <v>998139.99999999988</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="4"/>
+        <v>11.552546296296295</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>146.9</v>
+        <v>629</v>
       </c>
       <c r="D11">
-        <v>155.80000000000001</v>
+        <v>630.6</v>
       </c>
       <c r="E11">
-        <v>157</v>
+        <v>631.29999999999995</v>
       </c>
       <c r="G11" s="1">
         <f>AVERAGE(C11:E11)</f>
-        <v>153.23333333333335</v>
+        <v>630.29999999999995</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
-        <v>2.5538888888888893</v>
+        <f t="shared" ref="H11:H17" si="5">G11/60</f>
+        <v>10.504999999999999</v>
       </c>
       <c r="J11">
         <v>2373</v>
@@ -855,37 +859,37 @@
         <v>6300000</v>
       </c>
       <c r="N11">
-        <f>(G11/J11)*M11</f>
-        <v>406814.1592920355</v>
+        <f t="shared" ref="N11:N17" si="6">(G11/J11)*M11</f>
+        <v>1673362.831858407</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="3"/>
-        <v>4.7084972140281884</v>
+        <f t="shared" ref="O11:O17" si="7">N11/86400</f>
+        <v>19.367625368731563</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>3202.1</v>
+        <v>42.6</v>
       </c>
       <c r="D12">
-        <v>3220.2</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E12">
-        <v>3219.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="G12" s="1">
-        <f>AVERAGE(C12:E12)</f>
-        <v>3213.8666666666663</v>
+        <f t="shared" ref="G12" si="8">AVERAGE(C12:E12)</f>
+        <v>37.733333333333334</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
-        <v>53.56444444444444</v>
+        <f t="shared" si="5"/>
+        <v>0.62888888888888894</v>
       </c>
       <c r="J12">
         <v>2373</v>
@@ -900,37 +904,37 @@
         <v>6300000</v>
       </c>
       <c r="N12">
-        <f>(G12/J12)*M12</f>
-        <v>8532389.380530972</v>
+        <f t="shared" si="6"/>
+        <v>100176.99115044247</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="3"/>
-        <v>98.754506719108477</v>
+        <f t="shared" si="7"/>
+        <v>1.1594559160930842</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13">
-        <v>2489.4</v>
+        <v>146.9</v>
       </c>
       <c r="D13">
-        <v>2498.1</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="E13">
-        <v>2469.8000000000002</v>
+        <v>157</v>
       </c>
       <c r="G13" s="1">
         <f>AVERAGE(C13:E13)</f>
-        <v>2485.7666666666669</v>
+        <v>153.23333333333335</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
-        <v>41.429444444444449</v>
+        <f t="shared" si="5"/>
+        <v>2.5538888888888893</v>
       </c>
       <c r="J13">
         <v>2373</v>
@@ -945,202 +949,462 @@
         <v>6300000</v>
       </c>
       <c r="N13">
-        <f>(G13/J13)*M13</f>
+        <f t="shared" si="6"/>
+        <v>406814.1592920355</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="7"/>
+        <v>4.7084972140281884</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>3202.1</v>
+      </c>
+      <c r="D14">
+        <v>3220.2</v>
+      </c>
+      <c r="E14">
+        <v>3219.3</v>
+      </c>
+      <c r="G14" s="1">
+        <f>AVERAGE(C14:E14)</f>
+        <v>3213.8666666666663</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="5"/>
+        <v>53.56444444444444</v>
+      </c>
+      <c r="J14">
+        <v>2373</v>
+      </c>
+      <c r="K14">
+        <v>74533</v>
+      </c>
+      <c r="L14">
+        <v>50318</v>
+      </c>
+      <c r="M14">
+        <v>6300000</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>8532389.380530972</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="7"/>
+        <v>98.754506719108477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>2489.4</v>
+      </c>
+      <c r="D15">
+        <v>2498.1</v>
+      </c>
+      <c r="E15">
+        <v>2469.8000000000002</v>
+      </c>
+      <c r="G15" s="1">
+        <f>AVERAGE(C15:E15)</f>
+        <v>2485.7666666666669</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="5"/>
+        <v>41.429444444444449</v>
+      </c>
+      <c r="J15">
+        <v>2373</v>
+      </c>
+      <c r="K15">
+        <v>74533</v>
+      </c>
+      <c r="L15">
+        <v>50318</v>
+      </c>
+      <c r="M15">
+        <v>6300000</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
         <v>6599380.5309734512</v>
       </c>
-      <c r="O13" s="1">
-        <f t="shared" si="3"/>
+      <c r="O15" s="1">
+        <f t="shared" si="7"/>
         <v>76.381719108489023</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>609.4</v>
+        <v>400</v>
       </c>
       <c r="D16">
-        <v>604.79999999999995</v>
+        <v>399.4</v>
       </c>
       <c r="E16">
-        <v>603.5</v>
+        <v>400.2</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" ref="G16:G19" si="5">AVERAGE(C16:E16)</f>
-        <v>605.9</v>
+        <f>AVERAGE(C16:E16)</f>
+        <v>399.86666666666662</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
-        <v>10.098333333333333</v>
+        <f t="shared" si="5"/>
+        <v>6.6644444444444435</v>
       </c>
       <c r="J16">
-        <v>10000</v>
+        <v>2373</v>
       </c>
       <c r="K16">
-        <v>66945</v>
+        <v>74533</v>
       </c>
       <c r="L16">
-        <v>17589</v>
+        <v>50318</v>
       </c>
       <c r="M16">
-        <v>1300000</v>
+        <v>6300000</v>
       </c>
       <c r="N16">
-        <f>(G16/J16)*M16</f>
-        <v>78767</v>
+        <f t="shared" si="6"/>
+        <v>1061592.9203539821</v>
       </c>
       <c r="O16" s="1">
-        <f>N16/86400</f>
-        <v>0.91165509259259259</v>
+        <f t="shared" si="7"/>
+        <v>12.286955096689608</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>340.6</v>
+      </c>
+      <c r="D17">
+        <v>351.5</v>
+      </c>
+      <c r="E17">
+        <v>340.2</v>
+      </c>
+      <c r="G17" s="1">
+        <f>AVERAGE(C17:E17)</f>
+        <v>344.09999999999997</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="5"/>
+        <v>5.7349999999999994</v>
+      </c>
+      <c r="J17">
+        <v>2373</v>
+      </c>
+      <c r="K17">
+        <v>74533</v>
+      </c>
+      <c r="L17">
+        <v>50318</v>
+      </c>
+      <c r="M17">
+        <v>6300000</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>913539.82300884952</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="7"/>
+        <v>10.573377581120944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>609.4</v>
+      </c>
+      <c r="D20">
+        <v>604.79999999999995</v>
+      </c>
+      <c r="E20">
+        <v>603.5</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" ref="G20:G25" si="9">AVERAGE(C20:E20)</f>
+        <v>605.9</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" ref="H20:H25" si="10">G20/60</f>
+        <v>10.098333333333333</v>
+      </c>
+      <c r="J20">
+        <v>10000</v>
+      </c>
+      <c r="K20">
+        <v>66945</v>
+      </c>
+      <c r="L20">
+        <v>17589</v>
+      </c>
+      <c r="M20">
+        <v>1300000</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20:N25" si="11">(G20/J20)*M20</f>
+        <v>78767</v>
+      </c>
+      <c r="O20" s="1">
+        <f>N20/86400</f>
+        <v>0.91165509259259259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="C17">
+      <c r="C21">
         <v>45.7</v>
       </c>
-      <c r="D17">
+      <c r="D21">
         <v>36.6</v>
       </c>
-      <c r="E17">
+      <c r="E21">
         <v>36.6</v>
       </c>
-      <c r="G17" s="1">
-        <f t="shared" si="5"/>
+      <c r="G21" s="1">
+        <f t="shared" si="9"/>
         <v>39.633333333333333</v>
       </c>
-      <c r="H17" s="1">
-        <f t="shared" si="2"/>
+      <c r="H21" s="1">
+        <f t="shared" si="10"/>
         <v>0.66055555555555556</v>
       </c>
-      <c r="J17">
+      <c r="J21">
         <v>10000</v>
       </c>
-      <c r="K17">
+      <c r="K21">
         <v>66945</v>
       </c>
-      <c r="L17">
+      <c r="L21">
         <v>17589</v>
       </c>
-      <c r="M17">
+      <c r="M21">
         <v>1300000</v>
       </c>
-      <c r="N17">
-        <f>(G17/J17)*M17</f>
+      <c r="N21">
+        <f t="shared" si="11"/>
         <v>5152.3333333333339</v>
       </c>
-      <c r="O17" s="1">
-        <f t="shared" ref="O17:O19" si="6">N17/86400</f>
+      <c r="O21" s="1">
+        <f t="shared" ref="O21:O25" si="12">N21/86400</f>
         <v>5.9633487654320992E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C18">
+      <c r="C22">
         <v>3327.6</v>
       </c>
-      <c r="D18">
+      <c r="D22">
         <v>3322.4</v>
       </c>
-      <c r="E18">
+      <c r="E22">
         <v>3317.2</v>
       </c>
-      <c r="G18" s="1">
-        <f t="shared" si="5"/>
+      <c r="G22" s="1">
+        <f t="shared" si="9"/>
         <v>3322.4</v>
       </c>
-      <c r="H18" s="1">
-        <f t="shared" si="2"/>
+      <c r="H22" s="1">
+        <f t="shared" si="10"/>
         <v>55.373333333333335</v>
       </c>
-      <c r="J18">
+      <c r="J22">
         <v>10000</v>
       </c>
-      <c r="K18">
+      <c r="K22">
         <v>66945</v>
       </c>
-      <c r="L18">
+      <c r="L22">
         <v>17589</v>
       </c>
-      <c r="M18">
+      <c r="M22">
         <v>1300000</v>
       </c>
-      <c r="N18">
-        <f>(G18/J18)*M18</f>
+      <c r="N22">
+        <f t="shared" si="11"/>
         <v>431912.00000000006</v>
       </c>
-      <c r="O18" s="1">
-        <f t="shared" si="6"/>
+      <c r="O22" s="1">
+        <f t="shared" si="12"/>
         <v>4.9989814814814819</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B23" t="s">
         <v>11</v>
       </c>
-      <c r="C19">
+      <c r="C23">
         <v>1349.8</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>1343.8</v>
       </c>
-      <c r="E19">
+      <c r="E23">
         <v>1340.5</v>
       </c>
-      <c r="G19" s="1">
-        <f t="shared" si="5"/>
+      <c r="G23" s="1">
+        <f t="shared" si="9"/>
         <v>1344.7</v>
       </c>
-      <c r="H19" s="1">
-        <f t="shared" si="2"/>
+      <c r="H23" s="1">
+        <f t="shared" si="10"/>
         <v>22.411666666666669</v>
       </c>
-      <c r="J19">
+      <c r="J23">
         <v>10000</v>
       </c>
-      <c r="K19">
+      <c r="K23">
         <v>66945</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>17589</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1300000</v>
       </c>
-      <c r="N19">
-        <f>(G19/J19)*M19</f>
+      <c r="N23">
+        <f t="shared" si="11"/>
         <v>174811</v>
       </c>
-      <c r="O19" s="1">
-        <f t="shared" si="6"/>
+      <c r="O23" s="1">
+        <f t="shared" si="12"/>
         <v>2.023275462962963</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>300.60000000000002</v>
+      </c>
+      <c r="D24">
+        <v>300.3</v>
+      </c>
+      <c r="E24">
+        <v>309.8</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="9"/>
+        <v>303.56666666666666</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="10"/>
+        <v>5.059444444444444</v>
+      </c>
+      <c r="J24">
+        <v>10000</v>
+      </c>
+      <c r="K24">
+        <v>66945</v>
+      </c>
+      <c r="L24">
+        <v>17589</v>
+      </c>
+      <c r="M24">
+        <v>1300000</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="11"/>
+        <v>39463.666666666664</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="12"/>
+        <v>0.45675540123456787</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>150.1</v>
+      </c>
+      <c r="D25">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="E25">
+        <v>140.6</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="9"/>
+        <v>143.63333333333333</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="10"/>
+        <v>2.3938888888888887</v>
+      </c>
+      <c r="J25">
+        <v>10000</v>
+      </c>
+      <c r="K25">
+        <v>66945</v>
+      </c>
+      <c r="L25">
+        <v>17589</v>
+      </c>
+      <c r="M25">
+        <v>1300000</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="11"/>
+        <v>18672.333333333332</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="12"/>
+        <v>0.21611496913580244</v>
       </c>
     </row>
   </sheetData>

--- a/case_studies/summary/Performance Measurement.xlsx
+++ b/case_studies/summary/Performance Measurement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hermannkroll/Documents/PromotionProjekte/PubMedSnorkel/lib/KGExtractionToolbox/case_studies/summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E25F537-261A-8949-B2BC-F5CE27DC806F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814940E8-3C54-7E4D-8B55-928E0B0367E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{539F0658-8169-C44B-8A1D-0CC3FA545B0F}"/>
+    <workbookView xWindow="1280" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{539F0658-8169-C44B-8A1D-0CC3FA545B0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9AA0F7-EBE6-FE4A-A9FB-3BD9F1FBB704}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="193" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="193" workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
